--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_39.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77143.57536484579</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77143.57536484579</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188347748.437599</v>
+        <v>43623641.98092084</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12439.17472228076</v>
+        <v>1006161.644903244</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24094.28060970698</v>
+        <v>1876421.235052067</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35739.61380303478</v>
+        <v>2746680.82520089</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47635.37254876921</v>
+        <v>3616068.170022734</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59531.13129450363</v>
+        <v>4485455.514844578</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71426.88638184406</v>
+        <v>5354842.859666421</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83322.57934816045</v>
+        <v>6224230.204488261</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95218.33809389488</v>
+        <v>7093617.549310099</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107114.0968396293</v>
+        <v>7963004.894131938</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119009.8519269697</v>
+        <v>8832392.238953779</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>130905.6106727042</v>
+        <v>9701779.583775617</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142801.3657600446</v>
+        <v>10571166.92859746</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154697.1245057791</v>
+        <v>11440554.27341931</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166592.8832515135</v>
+        <v>12309941.61824116</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178488.6419972481</v>
+        <v>13179328.96306301</v>
       </c>
     </row>
   </sheetData>
